--- a/test/benchmark-4.4.38-rt49-rt/mixbench/mixbench-cuda-alt.xlsx
+++ b/test/benchmark-4.4.38-rt49-rt/mixbench/mixbench-cuda-alt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="mixbench-cuda-alt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/loki/Desktop/devel/nvidia-jetson-rt/test/benchmark-4.4.38-rt49-rt/mixbench/mixbench-cuda-alt.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/loki/Desktop/devel/nvidia-jetson-rt/test/benchmark-4.4.38-rt49-rt/mixbench/mixbench-cuda-alt.csv" comma="1">
       <textFields count="17">
         <textField/>
         <textField/>
@@ -152,6 +152,1956 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mixbench (Alt, RT)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Single Precision</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>79.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90.48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>102.63</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>116.63</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131.68</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>155.08</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>196.44</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>219.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>237.76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>231.26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>241.61</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>238.32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>247.55</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>248.33</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>242.57</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>244.65</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>249.09</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>439.91</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>440.67</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>465.59</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>459.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>9.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.49</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.77</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35.66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27.46</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.31</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.63</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.38</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.99</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.33</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.38</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.34</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Double Precision</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent2"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.89</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.88</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14.89</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14.88</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>9.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.98</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.74</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.86</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.51</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Half Precision</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent3"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>101.99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>119.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>138.13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>158.59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>180.92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>205.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>232.74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>263.46</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>308.03</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>339.61</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>393.31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>413.23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>428.67</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>436.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>457.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>451.09</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>472.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>467.98</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>474.86</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>461.57</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>851.3099999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>862.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>859.51</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>911.27</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>900.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>9.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.98</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.84</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.69</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.46</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35.34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28.61</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.99</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.06</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.68</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16.38</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.68</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.16</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.16</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Integer Operations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent4"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$3:$P$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80.41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>79.26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81.31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>84.06</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>83.97</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83.11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>83.26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>84.58</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>84.44</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>85.88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>85.31</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>86.75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>86.19</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>86.53</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>86.04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>154.16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>154.53</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>157.87</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>156.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$3:$Q$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>9.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.46</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.02</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.52</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.69</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.06</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.76</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.23</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.03</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.98</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.51</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2096771360"/>
+        <c:axId val="2096769584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2096771360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="950.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2096769584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="50.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2096769584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="42.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2096771360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="3.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="247">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="100" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="79000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="60000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,7 +2373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2270,5 +4222,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/test/benchmark-4.4.38-rt49-rt/mixbench/mixbench-cuda-alt.xlsx
+++ b/test/benchmark-4.4.38-rt49-rt/mixbench/mixbench-cuda-alt.xlsx
@@ -1252,11 +1252,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2096771360"/>
-        <c:axId val="2096769584"/>
+        <c:axId val="-1302751424"/>
+        <c:axId val="-1302747152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2096771360"/>
+        <c:axId val="-1302751424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="950.0"/>
@@ -1337,13 +1337,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096769584"/>
+        <c:crossAx val="-1302747152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2096769584"/>
+        <c:axId val="-1302747152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42.0"/>
@@ -1418,7 +1418,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096771360"/>
+        <c:crossAx val="-1302751424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3.0"/>
@@ -2074,15 +2074,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>939801</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>323274</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2373,7 +2373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:E35"/>
     </sheetView>
   </sheetViews>
